--- a/config_5.11/fish3d_hall_config.xlsx
+++ b/config_5.11/fish3d_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_5.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,7 +573,7 @@
     <col min="8" max="9" width="22" style="13" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
     <col min="11" max="11" width="20.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="2"/>
+    <col min="12" max="12" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="72.375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.875" style="2"/>
   </cols>
@@ -643,7 +643,7 @@
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11">
-        <v>200000</v>
+        <v>60000</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>19999</v>
+        <v>0</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>13</v>
@@ -684,16 +684,16 @@
         <v>5000</v>
       </c>
       <c r="I3" s="12">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="K3" s="2">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>999999</v>
+        <v>499999</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>14</v>
@@ -730,11 +730,11 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
-        <v>1000000</v>
+      <c r="K4" s="12">
+        <v>500000</v>
       </c>
       <c r="L4" s="2">
-        <v>9999999</v>
+        <v>5999999</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>15</v>
@@ -772,7 +772,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>10000000</v>
+        <v>6000000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>59999999</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>16</v>
@@ -808,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>17</v>

--- a/config_5.11/fish3d_hall_config.xlsx
+++ b/config_5.11/fish3d_hall_config.xlsx
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -680,9 +680,7 @@
       <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="12">
-        <v>5000</v>
-      </c>
+      <c r="H3" s="12"/>
       <c r="I3" s="12">
         <v>500000</v>
       </c>
